--- a/core/web/dbInfo.xlsx
+++ b/core/web/dbInfo.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="127">
+  <si>
+    <t>accounts</t>
+  </si>
   <si>
     <t>序号</t>
   </si>
@@ -34,9 +37,6 @@
     <t>说明</t>
   </si>
   <si>
-    <t>accounts</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -52,148 +52,139 @@
     <t>用户账号ID</t>
   </si>
   <si>
-    <t>created_at</t>
+    <t>username</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>个人资料ID</t>
+  </si>
+  <si>
+    <t>profiles</t>
+  </si>
+  <si>
+    <t>real_name</t>
+  </si>
+  <si>
+    <t>真实姓名</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>班级</t>
+  </si>
+  <si>
+    <t>avatar_seed</t>
+  </si>
+  <si>
+    <t>头像种子</t>
+  </si>
+  <si>
+    <t>checkpoints</t>
+  </si>
+  <si>
+    <t>考点ID</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>考点名称</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>考点描述</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>输入流监听内容</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>输出流监听内容</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>监听方式</t>
+  </si>
+  <si>
+    <t>departments</t>
+  </si>
+  <si>
+    <t>班级ID</t>
+  </si>
+  <si>
+    <t>班级名称</t>
+  </si>
+  <si>
+    <t>deployments</t>
+  </si>
+  <si>
+    <t>容器部署配置ID</t>
+  </si>
+  <si>
+    <t>容器部署配置名</t>
+  </si>
+  <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <t>blob</t>
+  </si>
+  <si>
+    <t>容器部署配置内容</t>
+  </si>
+  <si>
+    <t>exams</t>
+  </si>
+  <si>
+    <t>考试ID</t>
+  </si>
+  <si>
+    <t>考试名</t>
+  </si>
+  <si>
+    <t>考试描述</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>成绩上限</t>
+  </si>
+  <si>
+    <t>begin_at</t>
   </si>
   <si>
     <t>datetime</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>deleted_at</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>用户名</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>角色</t>
-  </si>
-  <si>
-    <t>profile</t>
-  </si>
-  <si>
-    <t>个人资料ID</t>
-  </si>
-  <si>
-    <t>profiles</t>
-  </si>
-  <si>
-    <t>real_name</t>
-  </si>
-  <si>
-    <t>真实姓名</t>
-  </si>
-  <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>班级</t>
-  </si>
-  <si>
-    <t>avatar_seed</t>
-  </si>
-  <si>
-    <t>头像种子</t>
-  </si>
-  <si>
-    <t>checkpoints</t>
-  </si>
-  <si>
-    <t>考点ID</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>考点名称</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>考点描述</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>输入流监听内容</t>
-  </si>
-  <si>
-    <t>out</t>
-  </si>
-  <si>
-    <t>输出流监听内容</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>监听方式</t>
-  </si>
-  <si>
-    <t>departments</t>
-  </si>
-  <si>
-    <t>班级ID</t>
-  </si>
-  <si>
-    <t>班级名称</t>
-  </si>
-  <si>
-    <t>deployments</t>
-  </si>
-  <si>
-    <t>容器部署配置ID</t>
-  </si>
-  <si>
-    <t>容器部署配置名</t>
-  </si>
-  <si>
-    <t>raw</t>
-  </si>
-  <si>
-    <t>blob</t>
-  </si>
-  <si>
-    <t>容器部署配置内容</t>
-  </si>
-  <si>
-    <t>exams</t>
-  </si>
-  <si>
-    <t>考试ID</t>
-  </si>
-  <si>
-    <t>考试名</t>
-  </si>
-  <si>
-    <t>考试描述</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>成绩上限</t>
-  </si>
-  <si>
-    <t>begin_at</t>
   </si>
   <si>
     <t>考试开始时间</t>
@@ -1356,14 +1347,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F138"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F138" sqref="F138"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
+    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
     <col min="6" max="6" width="23.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1371,31 +1363,31 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:6">
       <c r="A3" s="1">
@@ -1433,14 +1425,16 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -1451,17 +1445,19 @@
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -1469,17 +1465,19 @@
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -1488,85 +1486,85 @@
         <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:6">
-      <c r="A8" s="1">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="1:6">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:6">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:6">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:6">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -1575,16 +1573,18 @@
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:6">
       <c r="A13" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
@@ -1595,73 +1595,69 @@
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:6">
-      <c r="A14" s="1">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" spans="1:6">
-      <c r="A15" s="1">
+      <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:6">
       <c r="A16" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:6">
       <c r="A17" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
@@ -1670,18 +1666,18 @@
         <v>9</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:6">
       <c r="A18" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
@@ -1690,179 +1686,175 @@
         <v>9</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:6">
-      <c r="A19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="A19" s="1">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:6">
       <c r="A20" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:6">
       <c r="A21" s="1">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" spans="1:6">
-      <c r="A22" s="1">
+      <c r="C23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" spans="1:6">
-      <c r="A23" s="1">
+      <c r="D23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:6">
       <c r="A24" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:6">
       <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1" spans="1:6">
-      <c r="A26" s="1">
-        <v>7</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1" spans="1:6">
-      <c r="A27" s="1">
-        <v>8</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:6">
       <c r="A28" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
@@ -1871,105 +1863,111 @@
         <v>9</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:6">
-      <c r="A29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:6">
       <c r="A30" s="1">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" ht="15" customHeight="1" spans="1:6">
+      <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1" spans="1:6">
-      <c r="A31" s="1">
+      <c r="B32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" ht="15" customHeight="1" spans="1:6">
-      <c r="A32" s="1">
+      <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" ht="15" customHeight="1" spans="1:6">
       <c r="A33" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:6">
       <c r="A34" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>9</v>
@@ -1978,25 +1976,35 @@
         <v>9</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:6">
-      <c r="A35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="A35" s="1">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="36" ht="15" customHeight="1" spans="1:6">
       <c r="A36" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
@@ -2005,21 +2013,21 @@
         <v>9</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" spans="1:6">
       <c r="A37" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>9</v>
@@ -2027,17 +2035,19 @@
       <c r="E37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="1"/>
+      <c r="F37" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:6">
       <c r="A38" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>9</v>
@@ -2045,17 +2055,19 @@
       <c r="E38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="1"/>
+      <c r="F38" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="39" ht="15" customHeight="1" spans="1:6">
       <c r="A39" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>9</v>
@@ -2063,17 +2075,19 @@
       <c r="E39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="1"/>
+      <c r="F39" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:6">
       <c r="A40" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>9</v>
@@ -2082,18 +2096,18 @@
         <v>9</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" spans="1:6">
       <c r="A41" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>9</v>
@@ -2102,12 +2116,12 @@
         <v>9</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2116,52 +2130,54 @@
       <c r="F42" s="1"/>
     </row>
     <row r="43" ht="15" customHeight="1" spans="1:6">
-      <c r="A43" s="1">
+      <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>54</v>
+        <v>5</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:6">
       <c r="A44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="45" ht="15" customHeight="1" spans="1:6">
       <c r="A45" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>9</v>
@@ -2169,17 +2185,19 @@
       <c r="E45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="1"/>
+      <c r="F45" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:6">
       <c r="A46" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>9</v>
@@ -2187,17 +2205,19 @@
       <c r="E46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="1"/>
+      <c r="F46" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="47" ht="15" customHeight="1" spans="1:6">
       <c r="A47" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>9</v>
@@ -2206,98 +2226,88 @@
         <v>9</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" spans="1:6">
       <c r="A48" s="1">
+        <v>5</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" ht="15" customHeight="1" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" ht="15" customHeight="1" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" ht="15" customHeight="1" spans="1:6">
-      <c r="A49" s="1">
-        <v>7</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" ht="15" customHeight="1" spans="1:6">
-      <c r="A50" s="1">
-        <v>8</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" spans="1:6">
       <c r="A51" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" spans="1:6">
       <c r="A52" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>9</v>
@@ -2306,15 +2316,15 @@
         <v>9</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" spans="1:6">
       <c r="A53" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>8</v>
@@ -2326,18 +2336,18 @@
         <v>9</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" spans="1:6">
       <c r="A54" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>9</v>
@@ -2346,81 +2356,85 @@
         <v>9</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" spans="1:6">
-      <c r="A55" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="A55" s="1">
+        <v>5</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="56" ht="15" customHeight="1" spans="1:6">
-      <c r="A56" s="1">
+      <c r="A56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" ht="15" customHeight="1" spans="1:6">
+      <c r="A57" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" ht="15" customHeight="1" spans="1:6">
-      <c r="A57" s="1">
+      <c r="B57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="58" ht="15" customHeight="1" spans="1:6">
       <c r="A58" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="59" ht="15" customHeight="1" spans="1:6">
       <c r="A59" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>13</v>
@@ -2431,74 +2445,66 @@
       <c r="E59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="1"/>
+      <c r="F59" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="60" ht="15" customHeight="1" spans="1:6">
       <c r="A60" s="1">
+        <v>3</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" ht="15" customHeight="1" spans="1:6">
+      <c r="A61" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" ht="15" customHeight="1" spans="1:6">
+      <c r="A62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="61" ht="15" customHeight="1" spans="1:6">
-      <c r="A61" s="1">
+      <c r="F62" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" ht="15" customHeight="1" spans="1:6">
-      <c r="A62" s="1">
-        <v>7</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" spans="1:6">
       <c r="A63" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>8</v>
@@ -2507,102 +2513,108 @@
         <v>9</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" spans="1:6">
-      <c r="A64" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+      <c r="A64" s="1">
+        <v>2</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="65" ht="15" customHeight="1" spans="1:6">
       <c r="A65" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" spans="1:6">
       <c r="A66" s="1">
+        <v>4</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" ht="15" customHeight="1" spans="1:6">
+      <c r="A67" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" ht="15" customHeight="1" spans="1:6">
+      <c r="A68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" ht="15" customHeight="1" spans="1:6">
-      <c r="A67" s="1">
+      <c r="C68" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" ht="15" customHeight="1" spans="1:6">
-      <c r="A68" s="1">
+      <c r="D68" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="69" ht="15" customHeight="1" spans="1:6">
       <c r="A69" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>8</v>
@@ -2611,81 +2623,81 @@
         <v>9</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" spans="1:6">
       <c r="A70" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" spans="1:6">
       <c r="A71" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="72" ht="15" customHeight="1" spans="1:6">
-      <c r="A72" s="1">
-        <v>8</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="A72" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
     </row>
     <row r="73" ht="15" customHeight="1" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="74" ht="15" customHeight="1" spans="1:6">
       <c r="A74" s="1">
@@ -2704,7 +2716,7 @@
         <v>10</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" spans="1:6">
@@ -2712,7 +2724,7 @@
         <v>2</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>13</v>
@@ -2723,14 +2735,16 @@
       <c r="E75" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F75" s="1"/>
+      <c r="F75" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="76" ht="15" customHeight="1" spans="1:6">
       <c r="A76" s="1">
         <v>3</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>13</v>
@@ -2741,17 +2755,19 @@
       <c r="E76" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F76" s="1"/>
+      <c r="F76" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="77" ht="15" customHeight="1" spans="1:6">
       <c r="A77" s="1">
         <v>4</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>9</v>
@@ -2759,17 +2775,19 @@
       <c r="E77" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F77" s="1"/>
+      <c r="F77" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="78" ht="15" customHeight="1" spans="1:6">
       <c r="A78" s="1">
         <v>5</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>9</v>
@@ -2778,7 +2796,7 @@
         <v>9</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" spans="1:6">
@@ -2786,10 +2804,10 @@
         <v>6</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>9</v>
@@ -2797,46 +2815,56 @@
       <c r="E79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>88</v>
+      <c r="F79" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" spans="1:6">
-      <c r="A80" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
+      <c r="A80" s="1">
+        <v>7</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="81" ht="15" customHeight="1" spans="1:6">
       <c r="A81" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" spans="1:6">
       <c r="A82" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>13</v>
@@ -2847,120 +2875,126 @@
       <c r="E82" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F82" s="1"/>
+      <c r="F82" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="83" ht="15" customHeight="1" spans="1:6">
-      <c r="A83" s="1">
+      <c r="A83" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" ht="15" customHeight="1" spans="1:6">
+      <c r="A84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" ht="15" customHeight="1" spans="1:6">
-      <c r="A84" s="1">
+      <c r="D84" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E84" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F84" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="85" ht="15" customHeight="1" spans="1:6">
       <c r="A85" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F85" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" spans="1:6">
       <c r="A86" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1" spans="1:6">
       <c r="A87" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>78</v>
+      <c r="F87" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" spans="1:6">
-      <c r="A88" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
+      <c r="A88" s="1">
+        <v>4</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="89" ht="15" customHeight="1" spans="1:6">
       <c r="A89" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>8</v>
@@ -2969,18 +3003,18 @@
         <v>9</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1" spans="1:6">
       <c r="A90" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>13</v>
@@ -2991,70 +3025,66 @@
       <c r="E90" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F90" s="1"/>
+      <c r="F90" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="91" ht="15" customHeight="1" spans="1:6">
-      <c r="A91" s="1">
+      <c r="A91" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" ht="15" customHeight="1" spans="1:6">
+      <c r="A92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" s="1"/>
-    </row>
-    <row r="92" ht="15" customHeight="1" spans="1:6">
-      <c r="A92" s="1">
+      <c r="D92" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E92" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F92" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="93" ht="15" customHeight="1" spans="1:6">
       <c r="A93" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F93" s="2" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" spans="1:6">
       <c r="A94" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>8</v>
@@ -3066,140 +3096,146 @@
         <v>9</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" spans="1:6">
-      <c r="A95" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
+      <c r="A95" s="1">
+        <v>3</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="96" ht="15" customHeight="1" spans="1:6">
       <c r="A96" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" spans="1:6">
       <c r="A97" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F97" s="1"/>
+      <c r="F97" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="98" ht="15" customHeight="1" spans="1:6">
       <c r="A98" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F98" s="1"/>
+      <c r="F98" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="99" ht="15" customHeight="1" spans="1:6">
       <c r="A99" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F99" s="1"/>
+      <c r="F99" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="100" ht="15" customHeight="1" spans="1:6">
-      <c r="A100" s="1">
+      <c r="A100" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" ht="15" customHeight="1" spans="1:6">
+      <c r="A101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="101" ht="15" customHeight="1" spans="1:6">
-      <c r="A101" s="1">
+      <c r="F101" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1" spans="1:6">
       <c r="A102" s="1">
+        <v>1</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C102" s="1" t="s">
         <v>8</v>
       </c>
@@ -3207,21 +3243,21 @@
         <v>9</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1" spans="1:6">
       <c r="A103" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>9</v>
@@ -3230,15 +3266,15 @@
         <v>9</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1" spans="1:6">
       <c r="A104" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>8</v>
@@ -3249,19 +3285,19 @@
       <c r="E104" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>48</v>
+      <c r="F104" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1" spans="1:6">
       <c r="A105" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>9</v>
@@ -3270,18 +3306,18 @@
         <v>9</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1" spans="1:6">
       <c r="A106" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>9</v>
@@ -3290,18 +3326,18 @@
         <v>9</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1" spans="1:6">
       <c r="A107" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>9</v>
@@ -3310,598 +3346,26 @@
         <v>9</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="108" ht="15" customHeight="1" spans="1:6">
-      <c r="A108" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-    </row>
-    <row r="109" ht="15" customHeight="1" spans="1:6">
-      <c r="A109" s="1">
-        <v>1</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="110" ht="15" customHeight="1" spans="1:6">
-      <c r="A110" s="1">
-        <v>2</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F110" s="1"/>
-    </row>
-    <row r="111" ht="15" customHeight="1" spans="1:6">
-      <c r="A111" s="1">
-        <v>3</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F111" s="1"/>
-    </row>
-    <row r="112" ht="15" customHeight="1" spans="1:6">
-      <c r="A112" s="1">
-        <v>4</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112" s="1"/>
-    </row>
-    <row r="113" ht="15" customHeight="1" spans="1:6">
-      <c r="A113" s="1">
-        <v>5</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="114" ht="15" customHeight="1" spans="1:6">
-      <c r="A114" s="1">
-        <v>6</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="115" ht="15" customHeight="1" spans="1:6">
-      <c r="A115" s="1">
-        <v>7</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="116" ht="15" customHeight="1" spans="1:6">
-      <c r="A116" s="1">
-        <v>8</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="117" ht="15" customHeight="1" spans="1:6">
-      <c r="A117" s="1">
-        <v>9</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="118" ht="15" customHeight="1" spans="1:6">
-      <c r="A118" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-    </row>
-    <row r="119" ht="15" customHeight="1" spans="1:6">
-      <c r="A119" s="1">
-        <v>1</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="120" ht="15" customHeight="1" spans="1:6">
-      <c r="A120" s="1">
-        <v>2</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120" s="1"/>
-    </row>
-    <row r="121" ht="15" customHeight="1" spans="1:6">
-      <c r="A121" s="1">
-        <v>3</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" s="1"/>
-    </row>
-    <row r="122" ht="15" customHeight="1" spans="1:6">
-      <c r="A122" s="1">
-        <v>4</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F122" s="1"/>
-    </row>
-    <row r="123" ht="15" customHeight="1" spans="1:6">
-      <c r="A123" s="1">
-        <v>5</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="124" ht="15" customHeight="1" spans="1:6">
-      <c r="A124" s="1">
-        <v>6</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="125" ht="15" customHeight="1" spans="1:6">
-      <c r="A125" s="1">
-        <v>7</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="126" ht="15" customHeight="1" spans="1:6">
-      <c r="A126" s="1">
-        <v>8</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="127" ht="15" customHeight="1" spans="1:6">
-      <c r="A127" s="1">
-        <v>9</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="128" ht="15" customHeight="1" spans="1:6">
-      <c r="A128" s="1">
-        <v>10</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="129" ht="15" customHeight="1" spans="1:6">
-      <c r="A129" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-    </row>
-    <row r="130" ht="15" customHeight="1" spans="1:6">
-      <c r="A130" s="1">
-        <v>1</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="131" ht="15" customHeight="1" spans="1:6">
-      <c r="A131" s="1">
-        <v>2</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131" s="1"/>
-    </row>
-    <row r="132" ht="15" customHeight="1" spans="1:6">
-      <c r="A132" s="1">
-        <v>3</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F132" s="1"/>
-    </row>
-    <row r="133" ht="15" customHeight="1" spans="1:6">
-      <c r="A133" s="1">
-        <v>4</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" s="1"/>
-    </row>
-    <row r="134" ht="15" customHeight="1" spans="1:6">
-      <c r="A134" s="1">
-        <v>5</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="135" ht="15" customHeight="1" spans="1:6">
-      <c r="A135" s="1">
-        <v>6</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="136" ht="15" customHeight="1" spans="1:6">
-      <c r="A136" s="1">
-        <v>7</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="137" ht="15" customHeight="1" spans="1:6">
-      <c r="A137" s="1">
-        <v>8</v>
-      </c>
-      <c r="B137" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="138" ht="15" customHeight="1" spans="1:6">
-      <c r="A138" s="1">
-        <v>9</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A31:E31"/>
     <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A100:E100"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
